--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.150000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.150000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>5.339900516943976e-119</v>
+        <v>5.362531973686699e-119</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>5.182143248182196e-119</v>
+        <v>5.209965763076615e-119</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>5.02598414566772e-119</v>
+        <v>5.057061412421116e-119</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>4.871603346394815e-119</v>
+        <v>4.904187825731908e-119</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>4.719180987357127e-119</v>
+        <v>4.751713907020089e-119</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>4.568897205548513e-119</v>
+        <v>4.600008560296963e-119</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>4.420932137962634e-119</v>
+        <v>4.449440689573633e-119</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>4.275465921593737e-119</v>
+        <v>4.300379198861801e-119</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>4.132678693435476e-119</v>
+        <v>4.153192992172566e-119</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>3.992750590481529e-119</v>
+        <v>4.008250973517044e-119</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>3.855861749726116e-119</v>
+        <v>3.865922046906917e-119</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>3.722192308162906e-119</v>
+        <v>3.726575116353295e-119</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>3.591922402785588e-119</v>
+        <v>3.590579085867305e-119</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>3.465232170588355e-119</v>
+        <v>3.458302859460605e-119</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>3.342301748564893e-119</v>
+        <v>3.330115341144315e-119</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.223311273709054e-119</v>
+        <v>3.20638543492974e-119</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.108440883014547e-119</v>
+        <v>3.087482044828029e-119</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.997870713475527e-119</v>
+        <v>2.973774074850795e-119</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.891773344854041e-119</v>
+        <v>2.865615045091617e-119</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.79016938295319e-119</v>
+        <v>2.763049109071417e-119</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.692938686615978e-119</v>
+        <v>2.665833908036114e-119</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.599955806999674e-119</v>
+        <v>2.573716278614224e-119</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.51109529526168e-119</v>
+        <v>2.486443057434401e-119</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.426231702559293e-119</v>
+        <v>2.40376108112519e-119</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.345239580050137e-119</v>
+        <v>2.325417186315461e-119</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.267993478891504e-119</v>
+        <v>2.251158209633757e-119</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.194367950240702e-119</v>
+        <v>2.18073098770864e-119</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.124237545255329e-119</v>
+        <v>2.113882357168946e-119</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.057476815092689e-119</v>
+        <v>2.050359154643233e-119</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.993960310910187e-119</v>
+        <v>1.989908216760156e-119</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.933562583865149e-119</v>
+        <v>1.932276380148292e-119</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.876158185115136e-119</v>
+        <v>1.877210481436444e-119</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.821621665817471e-119</v>
+        <v>1.82445735725319e-119</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.769827577129494e-119</v>
+        <v>1.773763844227116e-119</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.720637552059611e-119</v>
+        <v>1.724886535691936e-119</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.673826765809889e-119</v>
+        <v>1.677647324065025e-119</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.629134909440165e-119</v>
+        <v>1.631894901911527e-119</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.58630156582172e-119</v>
+        <v>1.587478043508589e-119</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.545066317825662e-119</v>
+        <v>1.544245523133176e-119</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.505168748323157e-119</v>
+        <v>1.502046115062313e-119</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.466348440185319e-119</v>
+        <v>1.460728593572973e-119</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.428344976283417e-119</v>
+        <v>1.420141732942291e-119</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.390897939488564e-119</v>
+        <v>1.380134307447237e-119</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.353746912671879e-119</v>
+        <v>1.340555091364787e-119</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.316631478704623e-119</v>
+        <v>1.301252858972069e-119</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.279291220457916e-119</v>
+        <v>1.262076384546059e-119</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.241465720802921e-119</v>
+        <v>1.222874442363781e-119</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.202894562610755e-119</v>
+        <v>1.183495806702209e-119</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.163317328752683e-119</v>
+        <v>1.143789251838475e-119</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.122496963082385e-119</v>
+        <v>1.103616913046569e-119</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.080496737828225e-119</v>
+        <v>1.063012694339576e-119</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.037588276602805e-119</v>
+        <v>1.022129663477979e-119</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>9.940473941223652e-120</v>
+        <v>9.811232852670549e-120</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>9.501499051031423e-120</v>
+        <v>9.401490245120818e-120</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>9.061716242615458e-120</v>
+        <v>8.993623460184984e-120</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>8.623883663138124e-120</v>
+        <v>8.589187145915822e-120</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>8.190759459762359e-120</v>
+        <v>8.189735950366642e-120</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.765101779650555e-120</v>
+        <v>7.796824521590239e-120</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>7.349668769966775e-120</v>
+        <v>7.412007507640964e-120</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>6.947218577873395e-120</v>
+        <v>7.036839556571604e-120</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>6.560509350532858e-120</v>
+        <v>6.672875316434999e-120</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>6.192231705236343e-120</v>
+        <v>6.321634866154619e-120</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>5.843415462121435e-120</v>
+        <v>5.983788108106646e-120</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>5.513367565298175e-120</v>
+        <v>5.659122989403896e-120</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>5.20131500798651e-120</v>
+        <v>5.347386529601103e-120</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>4.906484783407592e-120</v>
+        <v>5.048325748254211e-120</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>4.628103884781345e-120</v>
+        <v>4.761687664917936e-120</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>4.365399305327776e-120</v>
+        <v>4.487219299147057e-120</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>4.11759803826791e-120</v>
+        <v>4.224667670497424e-120</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>3.883927076821736e-120</v>
+        <v>3.973779798523801e-120</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>3.663613414209312e-120</v>
+        <v>3.734302702781013e-120</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>3.455884043651558e-120</v>
+        <v>3.505983402824817e-120</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>3.259965958368517e-120</v>
+        <v>3.288568918210026e-120</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>3.075086151580529e-120</v>
+        <v>3.081806268491769e-120</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.900471616507709e-120</v>
+        <v>2.885442473224925e-120</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>2.735349346370861e-120</v>
+        <v>2.699224551965142e-120</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>2.578946334390086e-120</v>
+        <v>2.522899524267286e-120</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>2.430489573785536e-120</v>
+        <v>2.356214409686277e-120</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>2.289206057777941e-120</v>
+        <v>2.198916227777682e-120</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.15432277958744e-120</v>
+        <v>2.050751998096407e-120</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>2.025066732434375e-120</v>
+        <v>1.911468740197584e-120</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.900664909538927e-120</v>
+        <v>1.780813473636178e-120</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.780344304121761e-120</v>
+        <v>1.658533217967662e-120</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.663331909403052e-120</v>
+        <v>1.544374992746991e-120</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.548854718602992e-120</v>
+        <v>1.438085817529162e-120</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.436139724942222e-120</v>
+        <v>1.339412711869584e-120</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.324413921640929e-120</v>
+        <v>1.248102695323245e-120</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.213294449036783e-120</v>
+        <v>1.163933552452158e-120</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.104426487876355e-120</v>
+        <v>1.086842988715709e-120</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.000112120321239e-120</v>
+        <v>1.016820509460454e-120</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>9.026537655563392e-121</v>
+        <v>9.53855646608613e-121</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>8.143538427666001e-121</v>
+        <v>8.979379320824421e-121</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>7.375147711373072e-121</v>
+        <v>8.490568978044126e-121</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>6.744389698533899e-121</v>
+        <v>8.072020756967716e-121</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>6.274288580998495e-121</v>
+        <v>7.723629976818026e-121</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>5.987868550618641e-121</v>
+        <v>7.445291956819224e-121</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>5.908153799244126e-121</v>
+        <v>7.236902016194055e-121</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>6.058168518725465e-121</v>
+        <v>7.098355474165765e-121</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>6.460936900913881e-121</v>
+        <v>7.02954764995756e-121</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.13948313765886e-121</v>
+        <v>7.030373862792871e-121</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.52033999310096e-127</v>
+        <v>2.496251749794875e-127</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>3.146165173704139e-127</v>
+        <v>3.141549698345769e-127</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.823411567005931e-127</v>
+        <v>2.795891361165047e-127</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.581280595822405e-127</v>
+        <v>2.56989275052703e-127</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.385984491698317e-127</v>
+        <v>2.398394735334673e-127</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.217980711648369e-127</v>
+        <v>2.232946464883199e-127</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.231498864911647e-127</v>
+        <v>2.228915122086149e-127</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.696850192453782e-127</v>
+        <v>2.677826534834082e-127</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.459627515237371e-127</v>
+        <v>3.445480568886251e-127</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.575121041426341e-127</v>
+        <v>3.58773205075351e-127</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.447441895658883e-127</v>
+        <v>3.473186963995893e-127</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.331842844266932e-127</v>
+        <v>3.340665355159116e-127</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.044744667870111e-127</v>
+        <v>3.021422177885788e-127</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.646848866878448e-127</v>
+        <v>2.620295082004029e-127</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.329797010832335e-127</v>
+        <v>2.367782268409589e-127</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.115550805086064e-127</v>
+        <v>2.19810250645886e-127</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.969239907320909e-127</v>
+        <v>2.009100751406537e-127</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.869121796953649e-127</v>
+        <v>1.887903560910355e-127</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.702721444522932e-127</v>
+        <v>1.708774396452408e-127</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.512471734110233e-127</v>
+        <v>1.500468223632163e-127</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.364101150267195e-127</v>
+        <v>1.360735701382641e-127</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.217924948320691e-127</v>
+        <v>1.220423977912764e-127</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.083449158632113e-127</v>
+        <v>1.087944361034099e-127</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>9.729652710524175e-128</v>
+        <v>9.794041555957313e-128</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>8.805431314047055e-128</v>
+        <v>8.882992565185358e-128</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>7.982785865923643e-128</v>
+        <v>8.056760048465583e-128</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>7.187894583247911e-128</v>
+        <v>7.232966994425469e-128</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>6.400194050940008e-128</v>
+        <v>6.402287321390031e-128</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>5.630256842915231e-128</v>
+        <v>5.598102094672912e-128</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>4.889112324301977e-128</v>
+        <v>4.853878196761223e-128</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>4.190324955157184e-128</v>
+        <v>4.185540907972722e-128</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.550752222715405e-128</v>
+        <v>3.586229390422225e-128</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.987471677592612e-128</v>
+        <v>3.047560076551157e-128</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.5155106974745e-128</v>
+        <v>2.564333601642917e-128</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.136376011851553e-128</v>
+        <v>2.15235004244416e-128</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.846050677046826e-128</v>
+        <v>1.835785171518405e-128</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.633201069944696e-128</v>
+        <v>1.619217836621981e-128</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.471425828416264e-128</v>
+        <v>1.4667340956682e-128</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.33317980698777e-128</v>
+        <v>1.338481778278724e-128</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.205121426403259e-128</v>
+        <v>1.215680991874028e-128</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.086935509580904e-128</v>
+        <v>1.098877692124644e-128</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>9.787889945529352e-129</v>
+        <v>9.893330961684378e-129</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>8.8084881935173e-129</v>
+        <v>8.883084211434211e-129</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>7.932819220095157e-129</v>
+        <v>7.970648841874571e-129</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>7.162060056408838e-129</v>
+        <v>7.167662156093007e-129</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>6.490624004939738e-129</v>
+        <v>6.47236904196156e-129</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>5.908009899097447e-129</v>
+        <v>5.873283569685692e-129</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>5.403605942723708e-129</v>
+        <v>5.358700759125225e-129</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.966800339660405e-129</v>
+        <v>4.91691563014014e-129</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>4.586981293750001e-129</v>
+        <v>4.536223202590996e-129</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.253537008834354e-129</v>
+        <v>4.204918496337742e-129</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>3.955855688755532e-129</v>
+        <v>3.91129653124054e-129</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>3.683325537355485e-129</v>
+        <v>3.643652327159436e-129</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.426701672162969e-129</v>
+        <v>3.391795332221386e-129</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.183510901748642e-129</v>
+        <v>3.153037472894158e-129</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.953373170859693e-129</v>
+        <v>2.927009698874944e-129</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.735909037022246e-129</v>
+        <v>2.713343638769705e-129</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.530739057762111e-129</v>
+        <v>2.511670921184096e-129</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.337483790605204e-129</v>
+        <v>2.321623174723875e-129</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.155763793077365e-129</v>
+        <v>2.142832027994721e-129</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.985199622704674e-129</v>
+        <v>1.974929109602556e-129</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.825411837012963e-129</v>
+        <v>1.817546048153053e-129</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.676020993528084e-129</v>
+        <v>1.670314472251908e-129</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.536647649776089e-129</v>
+        <v>1.53286601050501e-129</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.406912363282826e-129</v>
+        <v>1.404832291518051e-129</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.286435691574211e-129</v>
+        <v>1.285844943896787e-129</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.174838192176113e-129</v>
+        <v>1.175535596246931e-129</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.071740422614549e-129</v>
+        <v>1.073535877174339e-129</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>9.767629404153853e-130</v>
+        <v>9.794774152847186e-130</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>8.895263031045006e-130</v>
+        <v>8.929918391837908e-130</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>8.0965106820789e-130</v>
+        <v>8.137107774773914e-130</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>7.367577932514298e-130</v>
+        <v>7.412658587712381e-130</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>6.704670357610374e-130</v>
+        <v>6.752887116710898e-130</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>6.103993532626037e-130</v>
+        <v>6.154109647826787e-130</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>5.561753032821002e-130</v>
+        <v>5.612642467118177e-130</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>5.074154433454154e-130</v>
+        <v>5.124801860642364e-130</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.637403309784476e-130</v>
+        <v>4.686904114456748e-130</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.247705237071531e-130</v>
+        <v>4.2952655146193e-130</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>3.901265790574283e-130</v>
+        <v>3.946202347187403e-130</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>3.594290545551902e-130</v>
+        <v>3.636030898218636e-130</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>3.322985077263445e-130</v>
+        <v>3.361067453770471e-130</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>3.083554960968324e-130</v>
+        <v>3.117628299900734e-130</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.872205771925582e-130</v>
+        <v>2.902029722666881e-130</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.685143085394389e-130</v>
+        <v>2.710588008126494e-130</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.518572476633843e-130</v>
+        <v>2.539619442337083e-130</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.368699520903266e-130</v>
+        <v>2.385440311356388e-130</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.231729793461747e-130</v>
+        <v>2.244366901241909e-130</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.103869078159859e-130</v>
+        <v>2.112715699223831e-130</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.982068463816461e-130</v>
+        <v>1.987521989857849e-130</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.865698325338537e-130</v>
+        <v>1.868154299048832e-130</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.754619062034738e-130</v>
+        <v>1.754453748812419e-130</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.648691073213863e-130</v>
+        <v>1.646261461164398e-130</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.547774758184562e-130</v>
+        <v>1.543418558120406e-130</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.451730516255534e-130</v>
+        <v>1.44576616169613e-130</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.36041874673544e-130</v>
+        <v>1.353145393907216e-130</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.273699848933061e-130</v>
+        <v>1.265397376769436e-130</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.191434222157055e-130</v>
+        <v>1.182363232298434e-130</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.113482265716123e-130</v>
+        <v>1.103884082509899e-130</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.039704378918931e-130</v>
+        <v>1.029801049419485e-130</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>9.699609610742459e-131</v>
+        <v>9.599552550429473e-131</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>9.041124114907343e-131</v>
+        <v>8.941878213959383e-131</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>8.420191294770687e-131</v>
+        <v>8.323398704941188e-131</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>7.835415143420048e-131</v>
+        <v>7.742525243532321e-131</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>7.285399653942137e-131</v>
+        <v>7.197669049889374e-131</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>6.768748819423953e-131</v>
+        <v>6.687241344169218e-131</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>6.284066632952287e-131</v>
+        <v>6.209653346528528e-131</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>5.829957087614572e-131</v>
+        <v>5.763316277124605e-131</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>5.405024176497586e-131</v>
+        <v>5.346641356114103e-131</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>5.007871892688153e-131</v>
+        <v>4.958039803653731e-131</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>4.637104229273629e-131</v>
+        <v>4.595922839900715e-131</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>4.291325179340831e-131</v>
+        <v>4.258701685011748e-131</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>3.969138735976754e-131</v>
+        <v>3.944787559143707e-131</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>3.669148892268274e-131</v>
+        <v>3.652591682453343e-131</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.389959641302657e-131</v>
+        <v>3.380525275097791e-131</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.130234856923742e-131</v>
+        <v>3.127089088368356e-131</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.888958348015715e-131</v>
+        <v>2.89126222667997e-131</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.665220335864099e-131</v>
+        <v>2.672182897696989e-131</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.458111113416698e-131</v>
+        <v>2.468989416230299e-131</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.266720973621422e-131</v>
+        <v>2.280820097090889e-131</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.090140209426108e-131</v>
+        <v>2.106813255089676e-131</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.927459113778827e-131</v>
+        <v>1.946107205037809e-131</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.77776797962741e-131</v>
+        <v>1.797840261746198e-131</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.64015709991971e-131</v>
+        <v>1.661150740025774e-131</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.513716767603762e-131</v>
+        <v>1.535176954687654e-131</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.397537275627415e-131</v>
+        <v>1.419057220542764e-131</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.290708916938582e-131</v>
+        <v>1.311929852402096e-131</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.192321984485132e-131</v>
+        <v>1.212933165076599e-131</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.101466771215066e-131</v>
+        <v>1.121205473377354e-131</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.017233570076253e-131</v>
+        <v>1.035885092115306e-131</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>9.387126740165681e-132</v>
+        <v>9.56110336101411e-132</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>8.649943759839959e-132</v>
+        <v>8.810195201467336e-132</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>7.952172690064551e-132</v>
+        <v>8.097978975196664e-132</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>7.290330184902489e-132</v>
+        <v>7.421293298961733e-132</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>6.664026764608299e-132</v>
+        <v>6.779983436849073e-132</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>6.072915613319437e-132</v>
+        <v>6.173936114095033e-132</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>5.516649915172498e-132</v>
+        <v>5.603038055935084e-132</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>4.994882854304371e-132</v>
+        <v>5.067175987604996e-132</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>4.507267614851732e-132</v>
+        <v>4.56623663434032e-132</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.053457380951909e-132</v>
+        <v>4.100106721377277e-132</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.633105336741563e-132</v>
+        <v>3.668672973951402e-132</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.245864666357413e-132</v>
+        <v>3.271822117298293e-132</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.891388553936698e-132</v>
+        <v>2.909440876654078e-132</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.569330183616123e-132</v>
+        <v>2.58141597725434e-132</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.279342739532454e-132</v>
+        <v>2.287634144334722e-132</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.020998440214502e-132</v>
+        <v>2.027873672955616e-132</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.792877704614871e-132</v>
+        <v>1.800584627531741e-132</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.592896217738018e-132</v>
+        <v>1.603326852293756e-132</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.418957413112665e-132</v>
+        <v>1.433643784139741e-132</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.268964724267761e-132</v>
+        <v>1.289078859967992e-132</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.140821584732014e-132</v>
+        <v>1.167175516676576e-132</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.032431428034219e-132</v>
+        <v>1.06547719116364e-132</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>9.416976877031314e-133</v>
+        <v>9.815273203272973e-133</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>8.665237972676255e-133</v>
+        <v>9.128693410657701e-133</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>8.048131902564494e-133</v>
+        <v>8.570466902771639e-133</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>7.544693001983765e-133</v>
+        <v>8.116028048596079e-133</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>7.133955606222445e-133</v>
+        <v>7.740811217112896e-133</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>6.794954050568219e-133</v>
+        <v>7.420250777303339e-133</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>6.507342948626216e-133</v>
+        <v>7.130661182885555e-133</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>6.259601340602643e-133</v>
+        <v>6.860877465753941e-133</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>6.046775037146424e-133</v>
+        <v>6.609051950178852e-133</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>5.864066199938092e-133</v>
+        <v>6.373558799809427e-133</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>5.706676990658244e-133</v>
+        <v>6.152772178294839e-133</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>5.569809570987683e-133</v>
+        <v>5.945066249284558e-133</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>5.448666102606989e-133</v>
+        <v>5.748815176427746e-133</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>5.338448747196822e-133</v>
+        <v>5.562393123373676e-133</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>5.234359666437798e-133</v>
+        <v>5.384174253771534e-133</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>5.131601022010667e-133</v>
+        <v>5.21253273127075e-133</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>5.025374975596042e-133</v>
+        <v>5.045842719520511e-133</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>4.910883688874527e-133</v>
+        <v>4.882478382170013e-133</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>4.783329323526886e-133</v>
+        <v>4.720813882868669e-133</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.637914041233729e-133</v>
+        <v>4.559223385265678e-133</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>4.470279075222331e-133</v>
+        <v>4.396035992650412e-133</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>4.282209729301158e-133</v>
+        <v>4.228950264079155e-133</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>4.080012319579837e-133</v>
+        <v>4.055200783106176e-133</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.870117405048535e-133</v>
+        <v>3.872033601813132e-133</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>3.669361264832948e-133</v>
+        <v>3.688625261228137e-133</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>3.521560323048067e-133</v>
+        <v>3.545228339724633e-133</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>3.436630172655038e-133</v>
+        <v>3.45306605948797e-133</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>3.361863321659416e-133</v>
+        <v>3.367606348545633e-133</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.246928198189747e-133</v>
+        <v>3.246119932885064e-133</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.088262299040983e-133</v>
+        <v>3.085722090794278e-133</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.898970846825808e-133</v>
+        <v>2.897728042788292e-133</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.692179504004543e-133</v>
+        <v>2.693470422954847e-133</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.480822721221822e-133</v>
+        <v>2.484144375267544e-133</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.274064494104542e-133</v>
+        <v>2.27823391264789e-133</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.07761713135996e-133</v>
+        <v>2.081741125929585e-133</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.897065639479153e-133</v>
+        <v>1.900576569781669e-133</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.737995024953438e-133</v>
+        <v>1.740650798873423e-133</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.605990294273885e-133</v>
+        <v>1.607874367873878e-133</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.506636453931648e-133</v>
+        <v>1.50815783145215e-133</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.445518510417862e-133</v>
+        <v>1.447411744277338e-133</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.42822147022374e-133</v>
+        <v>1.431546661018615e-133</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.455710003884434e-133</v>
+        <v>1.4615977885635e-133</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.475299520661207e-133</v>
+        <v>1.48198999000051e-133</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.417785930651024e-133</v>
+        <v>1.419774772506104e-133</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.3030178923271e-133</v>
+        <v>1.296258849965185e-133</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.178009324290815e-133</v>
+        <v>1.161517439059009e-133</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.068132607127737e-133</v>
+        <v>1.043346173961329e-133</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>9.711792092972493e-134</v>
+        <v>9.411463197758161e-134</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>8.831509425478675e-134</v>
+        <v>8.524767016997155e-134</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>8.000499216510136e-134</v>
+        <v>7.748962383329391e-134</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>7.194781042852945e-134</v>
+        <v>7.064569780786988e-134</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>6.443717609283805e-134</v>
+        <v>6.468551986636327e-134</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>5.7877758186252e-134</v>
+        <v>5.961294496070149e-134</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>5.267422573699427e-134</v>
+        <v>5.54318280428103e-134</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>4.917973768114257e-134</v>
+        <v>5.21278345689212e-134</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>4.705474175402092e-134</v>
+        <v>4.944201642769027e-134</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>4.546372357091992e-134</v>
+        <v>4.694028893797389e-134</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>4.356039066413293e-134</v>
+        <v>4.418476140924258e-134</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>4.068642840420901e-134</v>
+        <v>4.084207811427926e-134</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.699057258328832e-134</v>
+        <v>3.702768615814122e-134</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.28381024238162e-134</v>
+        <v>3.297745300901712e-134</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.859429979624431e-134</v>
+        <v>2.892724760765643e-134</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.462444589779671e-134</v>
+        <v>2.511293851397734e-134</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.12206871596202e-134</v>
+        <v>2.172902334138295e-134</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.840081747442681e-134</v>
+        <v>1.881480368909131e-134</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.611830988275844e-134</v>
+        <v>1.637319607330494e-134</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.432663742515866e-134</v>
+        <v>1.440711701022799e-134</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.297824106805917e-134</v>
+        <v>1.291650212322064e-134</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.200935871851653e-134</v>
+        <v>1.185448847417969e-134</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.134335454356525e-134</v>
+        <v>1.113703048562223e-134</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.090323756248226e-134</v>
+        <v>1.06790568229048e-134</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.061201679454498e-134</v>
+        <v>1.039549615138446e-134</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.039270125903024e-134</v>
+        <v>1.020127713641766e-134</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.016829997521512e-134</v>
+        <v>1.001132844336107e-134</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>9.861821962376512e-135</v>
+        <v>9.740578737571252e-135</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>9.396568536371072e-135</v>
+        <v>9.304274068583263e-135</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>8.733914090059436e-135</v>
+        <v>8.659001346925616e-135</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>7.910678179993249e-135</v>
+        <v>7.84326804931707e-135</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>6.972561838606114e-135</v>
+        <v>6.905225418852551e-135</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>5.965266098330536e-135</v>
+        <v>5.893024698625896e-135</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>4.934491991599367e-135</v>
+        <v>4.854817131731275e-135</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>3.925940550845013e-135</v>
+        <v>3.838753961262418e-135</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.985312808501242e-135</v>
+        <v>2.892986430314425e-135</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.158309797000441e-135</v>
+        <v>2.065665781981005e-135</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.490532223904273e-135</v>
+        <v>1.404836564918443e-135</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.006835171321495e-135</v>
+        <v>9.364805748433815e-136</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>6.860418514932959e-136</v>
+        <v>6.376252014199853e-136</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.00786294449932e-136</v>
+        <v>4.787157045844788e-136</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>4.237025302216439e-136</v>
+        <v>4.301973442730835e-136</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>4.274245888387473e-136</v>
+        <v>4.625153804220553e-136</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>4.845865003314407e-136</v>
+        <v>5.461150729675734e-136</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.678222947300193e-136</v>
+        <v>6.514416818459087e-136</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>6.497660020646541e-136</v>
+        <v>7.48940466993179e-136</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>7.042597369051331e-136</v>
+        <v>8.104024455574875e-136</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>7.235194775130206e-136</v>
+        <v>8.280863741240654e-136</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>7.140590718419848e-136</v>
+        <v>8.101782566047373e-136</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>6.827691433889351e-136</v>
+        <v>7.652838095953274e-136</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>6.365403156507717e-136</v>
+        <v>7.020087496916415e-136</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.822632121243676e-136</v>
+        <v>6.289587934894514e-136</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.268284563066727e-136</v>
+        <v>5.54739657584632e-136</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>4.771266716945623e-136</v>
+        <v>4.879570585729577e-136</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>4.400484817849346e-136</v>
+        <v>4.372167130502344e-136</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>4.208638043690307e-136</v>
+        <v>4.090976225164674e-136</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>4.181586624776136e-136</v>
+        <v>4.018204848249886e-136</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>4.287962881176789e-136</v>
+        <v>4.114516236188105e-136</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>4.496399115326043e-136</v>
+        <v>4.340573603355192e-136</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>4.775527629657814e-136</v>
+        <v>4.657040164127166e-136</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>5.093980726605615e-136</v>
+        <v>5.024579132879586e-136</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>5.420390708603342e-136</v>
+        <v>5.403853723988442e-136</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>5.723389878084894e-136</v>
+        <v>5.755527151829736e-136</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>5.971705676760255e-136</v>
+        <v>6.040374905953051e-136</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>6.151909136293513e-136</v>
+        <v>6.240229942831874e-136</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>6.289296897721912e-136</v>
+        <v>6.382625845359646e-136</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>6.414241179770058e-136</v>
+        <v>6.501085955752153e-136</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>6.557114201162728e-136</v>
+        <v>6.629133616225368e-136</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>6.748288180624638e-136</v>
+        <v>6.800292168995191e-136</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>7.018135336880638e-136</v>
+        <v>7.048084956277652e-136</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>7.397027888655214e-136</v>
+        <v>7.406035320288445e-136</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>7.915338054673175e-136</v>
+        <v>7.907666603243557e-136</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>8.602800900491805e-136</v>
+        <v>8.58583215531152e-136</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>9.453459083751087e-136</v>
+        <v>9.435853331720924e-136</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.040744337839065e-135</v>
+        <v>1.039636098503292e-135</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.140040809697695e-135</v>
+        <v>1.140127878957633e-135</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.23680075520765e-135</v>
+        <v>1.238453041968003e-135</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.324589605625453e-135</v>
+        <v>1.328003954967157e-135</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.396972792207757e-135</v>
+        <v>1.402172985387986e-135</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.447515746211191e-135</v>
+        <v>1.454352500663354e-135</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.469783898892317e-135</v>
+        <v>1.477934868226057e-135</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.458816334000554e-135</v>
+        <v>1.467816428996835e-135</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.41736464130054e-135</v>
+        <v>1.426764717837154e-135</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.350695041127892e-135</v>
+        <v>1.360113639718836e-135</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.264075137703335e-135</v>
+        <v>1.273198511972807e-135</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.162772535247511e-135</v>
+        <v>1.171354651929909e-135</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.052054837981082e-135</v>
+        <v>1.059917376921008e-135</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>9.371896501246616e-136</v>
+        <v>9.442220042769155e-136</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>8.234445758990205e-136</v>
+        <v>8.296038513286046e-136</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>7.160871357039574e-136</v>
+        <v>7.213981505566424e-136</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>6.192613679058855e-136</v>
+        <v>6.23802854550013e-136</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>5.331713444602388e-136</v>
+        <v>5.370275614429131e-136</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.57157929997867e-136</v>
+        <v>4.604080607074118e-136</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.905619891496656e-136</v>
+        <v>3.932801418156247e-136</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.327243865465057e-136</v>
+        <v>3.349795942396427e-136</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.82985986819335e-136</v>
+        <v>2.848422074516338e-136</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.406876545990209e-136</v>
+        <v>2.422037709236849e-136</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.05170254516459e-136</v>
+        <v>2.064000741279118e-136</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.75774651202533e-136</v>
+        <v>1.767669065364178e-136</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.518417092881646e-136</v>
+        <v>1.526400576213449e-136</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.327122934042348e-136</v>
+        <v>1.333553168547937e-136</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.177272681816333e-136</v>
+        <v>1.182484737088737e-136</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.062274982512688e-136</v>
+        <v>1.066553176557139e-136</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>9.755384824402925e-137</v>
+        <v>9.791163816742197e-137</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>9.104718279080776e-137</v>
+        <v>9.135322471611087e-137</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>8.604836652250545e-137</v>
+        <v>8.631586677390167e-137</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>8.189826407001448e-137</v>
+        <v>8.213535381290645e-137</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>7.800113205107346e-137</v>
+        <v>7.821134568650834e-137</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>7.418470045301046e-137</v>
+        <v>7.437017140486191e-137</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>7.04502086915834e-137</v>
+        <v>7.061297881405414e-137</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>6.679942037714289e-137</v>
+        <v>6.694144391065551e-137</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>6.323409912004132e-137</v>
+        <v>6.335724269123823e-137</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.975600853062953e-137</v>
+        <v>5.986205115237296e-137</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.636691221926302e-137</v>
+        <v>5.645754529063505e-137</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.306857379629258e-137</v>
+        <v>5.314540110259512e-137</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>4.986275687206915e-137</v>
+        <v>4.992729458482394e-137</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>4.675122505694801e-137</v>
+        <v>4.680490173389662e-137</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>4.373574196128005e-137</v>
+        <v>4.377989854638388e-137</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.081807119541637e-137</v>
+        <v>4.085396101885666e-137</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.799997636971198e-137</v>
+        <v>3.802876514788979e-137</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.528322109451789e-137</v>
+        <v>3.530598693005413e-137</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.266956898018534e-137</v>
+        <v>3.268730236192074e-137</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>3.016078363707018e-137</v>
+        <v>3.017438744006529e-137</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.775862867552024e-137</v>
+        <v>2.776891816105546e-137</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.546486770589021e-137</v>
+        <v>2.547257052146578e-137</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.328126433853441e-137</v>
+        <v>2.328702051787038e-137</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.120958218380124e-137</v>
+        <v>2.12139441468375e-137</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.925158485204683e-137</v>
+        <v>1.925501740494312e-137</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.740903595362004e-137</v>
+        <v>1.741191628875591e-137</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.568369909887503e-137</v>
+        <v>1.568631679484987e-137</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.407733789816559e-137</v>
+        <v>1.407989491979863e-137</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.259171596184121e-137</v>
+        <v>1.259432666017149e-137</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.122859690025575e-137</v>
+        <v>1.123128801254216e-137</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>9.989319618170608e-138</v>
+        <v>9.99203497124896e-138</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>8.870271237749116e-138</v>
+        <v>8.872926586023914e-138</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>7.864637245864673e-138</v>
+        <v>7.867155727480024e-138</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>6.965549456279289e-138</v>
+        <v>6.967862187516074e-138</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>6.166139682752592e-138</v>
+        <v>6.168185758028464e-138</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>5.459539739046686e-138</v>
+        <v>5.46126623091608e-138</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>4.838881438923342e-138</v>
+        <v>4.840243398077465e-138</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>4.297296596142688e-138</v>
+        <v>4.298257051409527e-138</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.82791702446657e-138</v>
+        <v>3.828446982810887e-138</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>3.423874537656568e-138</v>
+        <v>3.423952984179902e-138</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>3.078300949473207e-138</v>
+        <v>3.077914847413872e-138</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.784328073678368e-138</v>
+        <v>2.783472364411456e-138</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.535087724032773e-138</v>
+        <v>2.53376532707015e-138</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.323711714297953e-138</v>
+        <v>2.321933527288264e-138</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.143331858235306e-138</v>
+        <v>2.141116756963972e-138</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.987079969605757e-138</v>
+        <v>1.984454807994973e-138</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.848087862170728e-138</v>
+        <v>1.845087472279468e-138</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.719591492028545e-138</v>
+        <v>1.716258529198134e-138</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.597835806647315e-138</v>
+        <v>1.594216275282402e-138</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.482461230324387e-138</v>
+        <v>1.478599434989451e-138</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.373289980782426e-138</v>
+        <v>1.369228255884085e-138</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.270144275743805e-138</v>
+        <v>1.265922985530811e-138</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.172846332931276e-138</v>
+        <v>1.168503871494524e-138</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.081218370067235e-138</v>
+        <v>1.076791161339754e-138</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>9.950826048743402e-139</v>
+        <v>9.906051026312989e-139</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>9.142612550752303e-139</v>
+        <v>9.097659429339349e-139</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>8.385765383923293e-139</v>
+        <v>8.340939298122239e-139</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>7.678506725482799e-139</v>
+        <v>7.63409310830947e-139</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>7.019058752657093e-139</v>
+        <v>6.975323335548683e-139</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>6.405643642670668e-139</v>
+        <v>6.362832455485757e-139</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>5.83648357274983e-139</v>
+        <v>5.794822943768373e-139</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>5.309800720120717e-139</v>
+        <v>5.269497276044052e-139</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>4.823817262008072e-139</v>
+        <v>4.785057927958913e-139</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.376755375638071e-139</v>
+        <v>4.339707375160512e-139</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.966837238236758e-139</v>
+        <v>3.931648093296271e-139</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>3.59228502702908e-139</v>
+        <v>3.559082558012519e-139</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>3.251320919241404e-139</v>
+        <v>3.220213244956997e-139</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.942167092098802e-139</v>
+        <v>2.913242629776161e-139</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.663045722827283e-139</v>
+        <v>2.636373188117396e-139</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.412178988652749e-139</v>
+        <v>2.387807395627981e-139</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.187789066800434e-139</v>
+        <v>2.165747727954534e-139</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.988098134496265e-139</v>
+        <v>1.968396660744359e-139</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.811328368966077e-139</v>
+        <v>1.793956669644666e-139</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.65570194743524e-139</v>
+        <v>1.64063023030221e-139</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.51944104712961e-139</v>
+        <v>1.506619818364223e-139</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.400767845274973e-139</v>
+        <v>1.390127909477868e-139</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.297904519096804e-139</v>
+        <v>1.289356979290003e-139</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.209073245820904e-139</v>
+        <v>1.202509503447805e-139</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.132496202673022e-139</v>
+        <v>1.127787957598403e-139</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.066395566878711e-139</v>
+        <v>1.063394817388729e-139</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.008993515663778e-139</v>
+        <v>1.007532558465969e-139</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>9.585122262538091e-140</v>
+        <v>9.584036564770877e-140</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>9.132266581918107e-140</v>
+        <v>9.14264561790409e-140</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>8.722181713140701e-140</v>
+        <v>8.741963424353099e-140</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>8.351975058354631e-140</v>
+        <v>8.379236651353055e-140</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>8.018920971703571e-140</v>
+        <v>8.051882689742098e-140</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>7.720293807331066e-140</v>
+        <v>7.757318930358247e-140</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>7.453367919379869e-140</v>
+        <v>7.49296276403873e-140</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>7.215417661993557e-140</v>
+        <v>7.256231581621595e-140</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>7.003717389315592e-140</v>
+        <v>7.044542773944783e-140</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>6.815541455488892e-140</v>
+        <v>6.855313731845679e-140</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>6.648164214657087e-140</v>
+        <v>6.685961846162393e-140</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>6.498860020963163e-140</v>
+        <v>6.533904507732378e-140</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>6.364903228550573e-140</v>
+        <v>6.396559107393564e-140</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>6.24356819156271e-140</v>
+        <v>6.27134303598382e-140</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>6.132129264142646e-140</v>
+        <v>6.155673684340686e-140</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>6.027860800433787e-140</v>
+        <v>6.046968443302042e-140</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>5.928037154579507e-140</v>
+        <v>5.942644703705744e-140</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>5.829932680722921e-140</v>
+        <v>5.840119856389368e-140</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>5.730821733007409e-140</v>
+        <v>5.736811292190774e-140</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>5.627978665576353e-140</v>
+        <v>5.630136401947821e-140</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>5.518677832572862e-140</v>
+        <v>5.517512576498085e-140</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>5.400193588140315e-140</v>
+        <v>5.396357206679422e-140</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>5.269800286422124e-140</v>
+        <v>5.264087683329718e-140</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>5.124981368781283e-140</v>
+        <v>5.118315397154408e-140</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.965468819853533e-140</v>
+        <v>4.958738031354618e-140</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>4.792363265611921e-140</v>
+        <v>4.7863231518088e-140</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>4.60678472508708e-140</v>
+        <v>4.602056318085338e-140</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>4.409853217310291e-140</v>
+        <v>4.406923089753255e-140</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>4.202688761312146e-140</v>
+        <v>4.201909026380893e-140</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.986411376123767e-140</v>
+        <v>3.987999687537118e-140</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.762141080776304e-140</v>
+        <v>3.766180632790824e-140</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.530997894300302e-140</v>
+        <v>3.537437421710308e-140</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.294101835726905e-140</v>
+        <v>3.302755613864456e-140</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.052572924087283e-140</v>
+        <v>3.063120768822182e-140</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.807531178411946e-140</v>
+        <v>2.819518446151748e-140</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.560096617732058e-140</v>
+        <v>2.572934205422061e-140</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.311620877520622e-140</v>
+        <v>2.324609015210279e-140</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.065047675783157e-140</v>
+        <v>2.077539471705597e-140</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.823990016147611e-140</v>
+        <v>1.835460208413047e-140</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.592063218344079e-140</v>
+        <v>1.602108412859161e-140</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.372882602103317e-140</v>
+        <v>1.381221272571134e-140</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.170063487156029e-140</v>
+        <v>1.176535975076114e-140</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>9.872211932323806e-141</v>
+        <v>9.917897079007018e-141</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>8.279710400630954e-141</v>
+        <v>8.307196585720612e-141</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>6.959283473788111e-141</v>
+        <v>6.97063014617271e-141</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>5.937548896231481e-141</v>
+        <v>5.935816903558908e-141</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>5.197578616308422e-141</v>
+        <v>5.185837950492429e-141</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.710021046117453e-141</v>
+        <v>4.691067754939361e-141</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.445523660269402e-141</v>
+        <v>4.421879826016085e-141</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>4.374733933376489e-141</v>
+        <v>4.348647672840399e-141</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>4.468299340050296e-141</v>
+        <v>4.441744804529449e-141</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>4.696867354902654e-141</v>
+        <v>4.671544730200635e-141</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>5.031085452544911e-141</v>
+        <v>5.00842095897087e-141</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>5.441601107589378e-141</v>
+        <v>5.422746999958039e-141</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>5.899061794647483e-141</v>
+        <v>5.884896362279135e-141</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>6.374114988330487e-141</v>
+        <v>6.365242555050979e-141</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>6.837408163250952e-141</v>
+        <v>6.834159087391712e-141</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>7.259588794020139e-141</v>
+        <v>7.262019468418159e-141</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>7.611304355249465e-141</v>
+        <v>7.619197207247298e-141</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>7.863202321551263e-141</v>
+        <v>7.87606581299704e-141</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>7.985930167536877e-141</v>
+        <v>8.002998794784291e-141</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>7.950135367818094e-141</v>
+        <v>7.970369661726405e-141</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>7.73218139431923e-141</v>
+        <v>7.754311260769468e-141</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>7.346752182213907e-141</v>
+        <v>7.369567460093297e-141</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>6.824283233787581e-141</v>
+        <v>6.846753128399358e-141</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>6.195258474830568e-141</v>
+        <v>6.216531925056466e-141</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>5.490161831135243e-141</v>
+        <v>5.509567509435486e-141</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>4.739477228491593e-141</v>
+        <v>4.756523540904899e-141</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>3.973688592691521e-141</v>
+        <v>3.988063678835099e-141</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>3.223279849526972e-141</v>
+        <v>3.234851582596531e-141</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.518734924787865e-141</v>
+        <v>2.527550911557602e-141</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.890537744266175e-141</v>
+        <v>1.896825325088781e-141</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.369150313518195e-141</v>
+        <v>1.373316447114609e-141</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>9.72893166582747e-142</v>
+        <v>9.75460615855994e-142</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>6.87804186238853e-142</v>
+        <v>6.892418443499117e-142</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.946151744604354e-142</v>
+        <v>4.953101766741717e-142</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.740579332209452e-142</v>
+        <v>3.743156569061106e-142</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.068642644944216e-142</v>
+        <v>3.069083291236555e-142</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.737659702545424e-142</v>
+        <v>2.737382374043708e-142</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.555585615030503e-142</v>
+        <v>2.555194053970372e-142</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.393668323511046e-142</v>
+        <v>2.393220174351348e-142</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.239281405012812e-142</v>
+        <v>2.238781346985958e-142</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.092238261516015e-142</v>
+        <v>2.091690834884273e-142</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.952352295000844e-142</v>
+        <v>1.951761901056339e-142</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.81943690744711e-142</v>
+        <v>1.818807808511826e-142</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.69330550083501e-142</v>
+        <v>1.692641820260788e-142</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.573771477144713e-142</v>
+        <v>1.573077199313251e-142</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.460648238356069e-142</v>
+        <v>1.459927208678923e-142</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.353749186449254e-142</v>
+        <v>1.353005111367837e-142</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.252887723404421e-142</v>
+        <v>1.252124170390005e-142</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.157877251201455e-142</v>
+        <v>1.157097648755168e-142</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.068531171820512e-142</v>
+        <v>1.067738809473342e-142</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>9.846628872417333e-143</v>
+        <v>9.83860915554523e-143</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>9.060857994450313e-143</v>
+        <v>9.05277230008483e-143</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>8.326133104106141e-143</v>
+        <v>8.318010158452871e-143</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>7.64058822118414e-143</v>
+        <v>7.632455360747252e-143</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>7.002357365485651e-143</v>
+        <v>6.994240537067891e-143</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>6.409574556811839e-143</v>
+        <v>6.40149831751453e-143</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>5.86037381496229e-143</v>
+        <v>5.852361332185327e-143</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>5.352889159738209e-143</v>
+        <v>5.344962211180068e-143</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>4.885254610940651e-143</v>
+        <v>4.877433584598383e-143</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>4.455604188369433e-143</v>
+        <v>4.447908082538663e-143</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>4.06207191182564e-143</v>
+        <v>4.05451833510057e-143</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>3.702791801110235e-143</v>
+        <v>3.695396972383644e-143</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>3.375897876023225e-143</v>
+        <v>3.368676624486467e-143</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>3.079524156365852e-143</v>
+        <v>3.072489921508859e-143</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.81180466193824e-143</v>
+        <v>2.804969493549518e-143</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.570873412541317e-143</v>
+        <v>2.56424797070795e-143</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.354864427975923e-143</v>
+        <v>2.348457983083568e-143</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.16191172804232e-143</v>
+        <v>2.155732160775215e-143</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.990149332541366e-143</v>
+        <v>1.984203133882321e-143</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.837711261273842e-143</v>
+        <v>1.832003532504245e-143</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.702731534040128e-143</v>
+        <v>1.697265986739943e-143</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.583344170641022e-143</v>
+        <v>1.578123126688788e-143</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.477683190877264e-143</v>
+        <v>1.472707582450098e-143</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.383882614549319e-143</v>
+        <v>1.379151984122912e-143</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.30007646145801e-143</v>
+        <v>1.295588961806632e-143</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.224398751403841e-143</v>
+        <v>1.220151145600335e-143</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.154983504187544e-143</v>
+        <v>1.150971165603331e-143</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.089965130056777e-143</v>
+        <v>1.086182042677701e-143</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.027886484373952e-143</v>
+        <v>1.024325573206228e-143</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>9.684721575285175e-144</v>
+        <v>9.651262445467123e-144</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>9.116592183168735e-144</v>
+        <v>9.085211943453366e-144</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>8.573847355352679e-144</v>
+        <v>8.544475602481293e-144</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>8.055857779801039e-144</v>
+        <v>8.02842479901275e-144</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>7.561994144477751e-144</v>
+        <v>7.536430909509474e-144</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>7.091627137345425e-144</v>
+        <v>7.067865310431902e-144</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>6.64412744636803e-144</v>
+        <v>6.622099378241799e-144</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>6.218865759509434e-144</v>
+        <v>6.198504489400848e-144</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>5.815212764732378e-144</v>
+        <v>5.796452020369606e-144</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>5.43253915000076e-144</v>
+        <v>5.415313347609775e-144</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>5.070215603278401e-144</v>
+        <v>5.054459847582988e-144</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>4.727612812528148e-144</v>
+        <v>4.713262896749908e-144</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>4.404101465714129e-144</v>
+        <v>4.391093871572466e-144</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>4.099052250799262e-144</v>
+        <v>4.087324148511396e-144</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.81183585574735e-144</v>
+        <v>3.801325104028311e-144</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.541822968522135e-144</v>
+        <v>3.53246811458476e-144</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.288384277086631e-144</v>
+        <v>3.280124556641575e-144</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.050890469404597e-144</v>
+        <v>3.043665806660318e-144</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.828712233439725e-144</v>
+        <v>2.822463241102498e-144</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.621220257155123e-144</v>
+        <v>2.615888236429029e-144</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.427785228514499e-144</v>
+        <v>2.423312169101432e-144</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.247777835481515e-144</v>
+        <v>2.244106415581179e-144</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.080568766019349e-144</v>
+        <v>2.07764235232926e-144</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.925528708091808e-144</v>
+        <v>1.923291355807291e-144</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.782028349662117e-144</v>
+        <v>1.780424802476309e-144</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.649438378693923e-144</v>
+        <v>1.648414068797772e-144</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.527129483150837e-144</v>
+        <v>1.526630531233101e-144</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.414472350996143e-144</v>
+        <v>1.414445566243389e-144</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.310837670193458e-144</v>
+        <v>1.311230550290068e-144</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.215596128706369e-144</v>
+        <v>1.216356859834531e-144</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.128118414498208e-144</v>
+        <v>1.129195871337924e-144</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.047775215532567e-144</v>
+        <v>1.04911896126165e-144</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>9.739372197730159e-145</v>
+        <v>9.754975060670864e-145</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>9.059751151829238e-145</v>
+        <v>9.077028822154159e-145</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>8.43259589725919e-145</v>
+        <v>8.451064661680761e-145</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>7.851613313653919e-145</v>
+        <v>7.870796343862692e-145</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>7.310510312038595e-145</v>
+        <v>7.329937664964612e-145</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>6.80389470764506e-145</v>
+        <v>6.823110827612428e-145</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>6.329631227472462e-145</v>
+        <v>6.348222067679352e-145</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>5.886320344969023e-145</v>
+        <v>5.903919494313978e-145</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>5.472562533584618e-145</v>
+        <v>5.488851216666542e-145</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>5.086958266767574e-145</v>
+        <v>5.101665343885743e-145</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>4.728108017967351e-145</v>
+        <v>4.741009985121403e-145</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>4.394612260633313e-145</v>
+        <v>4.405533249523254e-145</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>4.085071468213931e-145</v>
+        <v>4.093883246240131e-145</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.798086114158593e-145</v>
+        <v>3.80470808442179e-145</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>3.5322566719166e-145</v>
+        <v>3.536655873217901e-145</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>3.286183614936549e-145</v>
+        <v>3.288374721777419e-145</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>3.058467416667759e-145</v>
+        <v>3.058512739250037e-145</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.84770855055949e-145</v>
+        <v>2.845718034785378e-145</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.652507490060435e-145</v>
+        <v>2.648638717532499e-145</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.471464708620022e-145</v>
+        <v>2.465922896641198e-145</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.303180679686998e-145</v>
+        <v>2.296218681260586e-145</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.146255876710606e-145</v>
+        <v>2.138174180540271e-145</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.999320081844471e-145</v>
+        <v>1.990464258751944e-145</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.861517639018339e-145</v>
+        <v>1.852233509670107e-145</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.732431880318714e-145</v>
+        <v>1.723027267462784e-145</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.611660212163387e-145</v>
+        <v>1.602403714373666e-145</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.498800040969822e-145</v>
+        <v>1.48992103264612e-145</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.393448773155815e-145</v>
+        <v>1.385137404523843e-145</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.295203815139137e-145</v>
+        <v>1.287611012250505e-145</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.203662573337293e-145</v>
+        <v>1.196900038069515e-145</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.118422454168132e-145</v>
+        <v>1.112562664224624e-145</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.039080864049185e-145</v>
+        <v>1.034157072959263e-145</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>9.652352093982146e-146</v>
+        <v>9.612414465170981e-146</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>8.964828966329641e-146</v>
+        <v>8.93373967141771e-146</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>8.324213321709936e-146</v>
+        <v>8.301128170767456e-146</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>7.726479224300505e-146</v>
+        <v>7.710161785656703e-146</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>7.167605707540241e-146</v>
+        <v>7.156428507022242e-146</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>6.644424834263547e-146</v>
+        <v>6.636575217981061e-146</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>6.15558176753647e-146</v>
+        <v>6.149499459911546e-146</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>5.699953609117884e-146</v>
+        <v>5.694386686976035e-146</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>5.27641746076544e-146</v>
+        <v>5.270422353335657e-146</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>4.883850424238383e-146</v>
+        <v>4.876791913153121e-146</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>4.521129601294481e-146</v>
+        <v>4.512680820589661e-146</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>4.187132093692577e-146</v>
+        <v>4.177274529807595e-146</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>3.880735003191146e-146</v>
+        <v>3.869758494968865e-146</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>3.600799545577849e-146</v>
+        <v>3.58929660840376e-146</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>3.345686793067296e-146</v>
+        <v>3.334373923761335e-146</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>3.113168896097788e-146</v>
+        <v>3.102676158452295e-146</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.900984214756062e-146</v>
+        <v>2.891843166661712e-146</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.706871109129496e-146</v>
+        <v>2.699514802575295e-146</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.528567939305402e-146</v>
+        <v>2.523330920378683e-146</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.363813065370619e-146</v>
+        <v>2.360931374257051e-146</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.210376073929087e-146</v>
+        <v>2.209984189238488e-146</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.066554255445665e-146</v>
+        <v>2.068633455693308e-146</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.931084457907365e-146</v>
+        <v>1.935419808564818e-146</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.802716941743797e-146</v>
+        <v>1.80889598276293e-146</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.680201967384549e-146</v>
+        <v>1.68761471319753e-146</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.562587343418084e-146</v>
+        <v>1.570486670478874e-146</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.450252232549247e-146</v>
+        <v>1.458024078289377e-146</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.343948013986358e-146</v>
+        <v>1.351186918332752e-146</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.244426084288482e-146</v>
+        <v>1.250935193184736e-146</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.152261710567153e-146</v>
+        <v>1.158022210330287e-146</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.067244965246446e-146</v>
+        <v>1.072279819261543e-146</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>9.889471954559183e-147</v>
+        <v>9.932831864159433e-147</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>9.169397390629971e-147</v>
+        <v>9.206074673614459e-147</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>8.507939339349169e-147</v>
+        <v>8.538278176658134e-147</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>7.900811179391098e-147</v>
+        <v>7.925193928970085e-147</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>7.343726289429879e-147</v>
+        <v>7.362573486229726e-147</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>6.832398048138162e-147</v>
+        <v>6.84616840411499e-147</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>6.362539834190513e-147</v>
+        <v>6.371730238305753e-147</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>5.929865026259734e-147</v>
+        <v>5.935010544480101e-147</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>5.530087003019913e-147</v>
+        <v>5.53176087831742e-147</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>5.158919143144689e-147</v>
+        <v>5.157732795496644e-147</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.812074825308012e-147</v>
+        <v>4.808677851697018e-147</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.485344689299967e-147</v>
+        <v>4.48042245423048e-147</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.176385083739814e-147</v>
+        <v>4.170600534802098e-147</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>3.884768718072617e-147</v>
+        <v>3.878702621861495e-147</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.610155695539895e-147</v>
+        <v>3.604303912171204e-147</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.352206119383103e-147</v>
+        <v>3.346979602493694e-147</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.110580092843007e-147</v>
+        <v>3.106304889590745e-147</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.88493771916108e-147</v>
+        <v>2.881854970224841e-147</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>2.674939101578734e-147</v>
+        <v>2.67320504115841e-147</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>2.480244343336822e-147</v>
+        <v>2.479930299153318e-147</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>2.300513547676771e-147</v>
+        <v>2.301605940972006e-147</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.135406817839955e-147</v>
+        <v>2.137807163376861e-147</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.984584257067308e-147</v>
+        <v>1.988109163129831e-147</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.847705968600332e-147</v>
+        <v>1.852087136993432e-147</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.724335646829998e-147</v>
+        <v>1.729235771644531e-147</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.613490832358017e-147</v>
+        <v>1.618593666086959e-147</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.513996968025956e-147</v>
+        <v>1.519039000369015e-147</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.424679284369398e-147</v>
+        <v>1.429449777244307e-147</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.3443630119242e-147</v>
+        <v>1.34870399946672e-147</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.271873381226188e-147</v>
+        <v>1.275679669790104e-147</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.206035622810994e-147</v>
+        <v>1.209254790968117e-147</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.145674967214451e-147</v>
+        <v>1.148307365754618e-147</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.089616658839467e-147</v>
+        <v>1.091715410870448e-147</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.039189232007639e-147</v>
+        <v>1.040878268236644e-147</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.005207849366522e-147</v>
+        <v>1.006750255761854e-147</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.000597224748573e-147</v>
+        <v>1.002409421613081e-147</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.029406609731141e-147</v>
+        <v>1.03192851836058e-147</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.081549608007283e-147</v>
+        <v>1.085037869528009e-147</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.145678491436319e-147</v>
+        <v>1.150188015605548e-147</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.210445531877426e-147</v>
+        <v>1.21582949708323e-147</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.264503001189782e-147</v>
+        <v>1.270412854451091e-147</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.296588654019777e-147</v>
+        <v>1.302476734157409e-147</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.300890598541029e-147</v>
+        <v>1.306177388673362e-147</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.280235160430124e-147</v>
+        <v>1.284574364986596e-147</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.238214417521387e-147</v>
+        <v>1.241516460527298e-147</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.178420447649256e-147</v>
+        <v>1.180852472725765e-147</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.1045330742162e-147</v>
+        <v>1.106494213237052e-147</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.021084013850678e-147</v>
+        <v>1.022965278361992e-147</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>9.330840299458367e-148</v>
+        <v>9.351332904439696e-148</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>8.455492244259143e-148</v>
+        <v>8.478697056769876e-148</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>7.634956992149137e-148</v>
+        <v>7.660459802548128e-148</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>6.915547831409754e-148</v>
+        <v>6.941592719507239e-148</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>6.30029492148253e-148</v>
+        <v>6.324962552861333e-148</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>5.764975787335311e-148</v>
+        <v>5.786925311633374e-148</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>5.284943000748269e-148</v>
+        <v>5.303423620156371e-148</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>4.835549133500321e-148</v>
+        <v>4.850400102762069e-148</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>4.39244031206536e-148</v>
+        <v>4.404084881622828e-148</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.944725947467424e-148</v>
+        <v>3.95389357824553e-148</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.50029369376673e-148</v>
+        <v>3.507632609498646e-148</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.068424780624594e-148</v>
+        <v>3.074473214489448e-148</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.658400437702284e-148</v>
+        <v>2.663586632325154e-148</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.279501894659964e-148</v>
+        <v>2.284144102111886e-148</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.941010381159212e-148</v>
+        <v>1.945316862957172e-148</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.652030584270463e-148</v>
+        <v>1.656100905833797e-148</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.415503531138294e-148</v>
+        <v>1.419373755353697e-148</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.226746089070945e-148</v>
+        <v>1.230444678624414e-148</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.080602335859845e-148</v>
+        <v>1.084153619852938e-148</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>9.719163492969423e-149</v>
+        <v>9.753405232467842e-149</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>8.955322071740559e-149</v>
+        <v>8.988453330133349e-149</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>8.462939872828128e-149</v>
+        <v>8.49507993359781e-149</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>8.190457674150571e-149</v>
+        <v>8.221684484935303e-149</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>8.08631625362553e-149</v>
+        <v>8.116666426219119e-149</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>8.098956389170469e-149</v>
+        <v>8.128425199522357e-149</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>8.176818858703084e-149</v>
+        <v>8.205360246918351e-149</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>8.268344440141155e-149</v>
+        <v>8.295871010480529e-149</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>8.321973911402258e-149</v>
+        <v>8.348356932282098e-149</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>8.287274782387093e-149</v>
+        <v>8.312345451330651e-149</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>8.144378298273645e-149</v>
+        <v>8.167962054982511e-149</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>7.906809630203559e-149</v>
+        <v>7.928763647006934e-149</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>7.589788111450797e-149</v>
+        <v>7.610003195295102e-149</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>7.208533075288348e-149</v>
+        <v>7.226933667737207e-149</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>6.778263854990028e-149</v>
+        <v>6.794808032224279e-149</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>6.314199783829834e-149</v>
+        <v>6.328879256647524e-149</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.831560195080483e-149</v>
+        <v>5.84440030889687e-149</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.345561392252392e-149</v>
+        <v>5.356621120567605e-149</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.86901083615632e-149</v>
+        <v>4.878377586955727e-149</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.407979012462966e-149</v>
+        <v>4.41575410292185e-149</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>3.967367660266793e-149</v>
+        <v>3.973663796867348e-149</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>3.552078518662189e-149</v>
+        <v>3.557019797193519e-149</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.167013326742431e-149</v>
+        <v>3.170735232300541e-149</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.817073823602228e-149</v>
+        <v>2.819723230590038e-149</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.507161748334976e-149</v>
+        <v>2.508896920462306e-149</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.242178840035032e-149</v>
+        <v>2.243169430318616e-149</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.027026837796594e-149</v>
+        <v>2.027453888560071e-149</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.866607480713299e-149</v>
+        <v>1.866663423587215e-149</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.765822507879389e-149</v>
+        <v>1.7657111638012e-149</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.729573658388895e-149</v>
+        <v>1.729510237602963e-149</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.762762671335776e-149</v>
+        <v>1.762973773393371e-149</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.868319897186857e-149</v>
+        <v>1.869037337701739e-149</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.024507535362846e-149</v>
+        <v>2.025891099686709e-149</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.192800039221815e-149</v>
+        <v>2.194884912972071e-149</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>2.334350104063783e-149</v>
+        <v>2.33704586556417e-149</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.410310425189284e-149</v>
+        <v>2.413401045469862e-149</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>2.381833697898418e-149</v>
+        <v>2.384977540695575e-149</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>2.222475455480165e-149</v>
+        <v>2.225245463797372e-149</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.019172609091034e-149</v>
+        <v>2.021423673347599e-149</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.919626279075643e-149</v>
+        <v>1.921692119835238e-149</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.019618395435297e-149</v>
+        <v>2.022085298994054e-149</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.217049272945408e-149</v>
+        <v>2.220041883282161e-149</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.41062435525285e-149</v>
+        <v>2.414044149617025e-149</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.504915525980393e-149</v>
+        <v>2.508485983301629e-149</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.415503425348637e-149</v>
+        <v>2.418797045083692e-149</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.174017268724145e-149</v>
+        <v>2.176740389460801e-149</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.881655872188617e-149</v>
+        <v>1.883819416667968e-149</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.639748597865184e-149</v>
+        <v>1.641666974589545e-149</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.488640604040596e-149</v>
+        <v>1.490675541501622e-149</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.368562967477823e-149</v>
+        <v>1.370707722329659e-149</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.248083320408138e-149</v>
+        <v>1.250163420522477e-149</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.127920635248172e-149</v>
+        <v>1.129797855997762e-149</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.009800822489511e-149</v>
+        <v>1.011379575019531e-149</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>8.954497926240654e-150</v>
+        <v>8.966771238521284e-150</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>7.865934561437339e-150</v>
+        <v>7.874590487598858e-150</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.849577235401213e-150</v>
+        <v>6.854938960068402e-150</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.921841011040936e-150</v>
+        <v>5.924636777861981e-150</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.087035086676312e-150</v>
+        <v>5.088092716858422e-150</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.340410234423596e-150</v>
+        <v>4.34042854485182e-150</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.676998784961483e-150</v>
+        <v>3.676542076009935e-150</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.09183306896837e-150</v>
+        <v>3.091331124500226e-150</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.579945417121106e-150</v>
+        <v>2.579693504488607e-150</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.136368160098527e-150</v>
+        <v>2.136527030142978e-150</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.756133628577736e-150</v>
+        <v>1.756729515629507e-150</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.434274167020714e-150</v>
+        <v>1.435198963829867e-150</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.165826028199713e-150</v>
+        <v>1.166886886983037e-150</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>9.45834727611269e-151</v>
+        <v>9.468716149032028e-151</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>7.693471227386785e-151</v>
+        <v>7.702498507688824e-151</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>6.314100710650818e-151</v>
+        <v>6.321182977584395e-151</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>5.270607822075753e-151</v>
+        <v>5.275627321355268e-151</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.511743034107318e-151</v>
+        <v>4.514852694025923e-151</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>3.984910678740408e-151</v>
+        <v>3.98635564798983e-151</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>3.637474305384134e-151</v>
+        <v>3.637586546375945e-151</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>3.416797463449254e-151</v>
+        <v>3.415995752314871e-151</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>3.270243702345436e-151</v>
+        <v>3.269033628936121e-151</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>3.145176571482951e-151</v>
+        <v>3.144150539369812e-151</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.993004637976651e-151</v>
+        <v>2.992818192091875e-151</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.806346244400993e-151</v>
+        <v>2.807476902108458e-151</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.601883559303261e-151</v>
+        <v>2.604489983444679e-151</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.396600305619441e-151</v>
+        <v>2.400520539749849e-151</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.207480206284953e-151</v>
+        <v>2.21223167467272e-151</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.051436506341282e-151</v>
+        <v>2.056217736037042e-151</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.93455812830494e-151</v>
+        <v>1.938513232490932e-151</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.840546822143707e-151</v>
+        <v>1.843312512139758e-151</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.75113214608509e-151</v>
+        <v>1.752880878224517e-151</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.659161962454973e-151</v>
+        <v>1.660260307188975e-151</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.565618498895505e-151</v>
+        <v>1.566377197053245e-151</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.471670109201541e-151</v>
+        <v>1.472338352912515e-151</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.378485147168023e-151</v>
+        <v>1.379250579862056e-151</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.287231966589639e-151</v>
+        <v>1.288220682996886e-151</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.199078921261408e-151</v>
+        <v>1.200355467412356e-151</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.115187222675211e-151</v>
+        <v>1.116754932793916e-151</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.036235128619216e-151</v>
+        <v>1.038058905428261e-151</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>9.621192306917071e-152</v>
+        <v>9.641624156008808e-152</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>8.926648587184897e-152</v>
+        <v>8.94892593150913e-152</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>8.27697342525572e-152</v>
+        <v>8.300765679177003e-152</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>7.670420119389451e-152</v>
+        <v>7.695414697405661e-152</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>7.105241967844385e-152</v>
+        <v>7.131144284586739e-152</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>6.579692268880477e-152</v>
+        <v>6.606225739113524e-152</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>6.092024320757539e-152</v>
+        <v>6.118930359379157e-152</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.640491421734079e-152</v>
+        <v>5.667529443775486e-152</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.2233468700703e-152</v>
+        <v>5.250294290696044e-152</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.83884396402484e-152</v>
+        <v>4.865496198532804e-152</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.485236001857479e-152</v>
+        <v>4.511406465678879e-152</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.160776281827884e-152</v>
+        <v>4.186296390527268e-152</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.863718102194856e-152</v>
+        <v>3.888437271470108e-152</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.592314761218089e-152</v>
+        <v>3.616100406900426e-152</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.344819557157184e-152</v>
+        <v>3.367557095211157e-152</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.119485788271084e-152</v>
+        <v>3.141078634794575e-152</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.914566752819408e-152</v>
+        <v>2.934936324043636e-152</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>2.728315749061705e-152</v>
+        <v>2.74740146135122e-152</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.558986075257027e-152</v>
+        <v>2.576745345109714e-152</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.404831029665071e-152</v>
+        <v>2.421239273712148e-152</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.264103910544947e-152</v>
+        <v>2.279154545550966e-152</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.135058016156187e-152</v>
+        <v>2.148762459019033e-152</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.015946644758181e-152</v>
+        <v>2.028334312509071e-152</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.905023094610411e-152</v>
+        <v>1.9161414044139e-152</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.800540663972066e-152</v>
+        <v>1.810455033126039e-152</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.700945550500169e-152</v>
+        <v>1.709736931843463e-152</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.605758225079926e-152</v>
+        <v>1.613509381466732e-152</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.514870932804072e-152</v>
+        <v>1.521661687105276e-152</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.428176278017278e-152</v>
+        <v>1.434083508530454e-152</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.345566865063985e-152</v>
+        <v>1.350664505513396e-152</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.266935298288869e-152</v>
+        <v>1.271294337825463e-152</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.192174182036592e-152</v>
+        <v>1.195862665238007e-152</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.121176120651616e-152</v>
+        <v>1.124259147522175e-152</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.053833718478606e-152</v>
+        <v>1.056373444449321e-152</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>9.900395798622158e-153</v>
+        <v>9.920952157907861e-153</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>9.296863091469254e-153</v>
+        <v>9.313141213177375e-153</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>8.7266651067744e-153</v>
+        <v>8.739198208015688e-153</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>8.188727887982541e-153</v>
+        <v>8.198019740134611e-153</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>7.681977478540163e-153</v>
+        <v>7.688502407247508e-153</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>7.205339921893649e-153</v>
+        <v>7.209542807067642e-153</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>6.757741261488103e-153</v>
+        <v>6.760037537306986e-153</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>6.338107540769934e-153</v>
+        <v>6.338883195678824e-153</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>5.945364803185445e-153</v>
+        <v>5.94497637989634e-153</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>5.578439092179891e-153</v>
+        <v>5.577213687671661e-153</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>5.236256451199607e-153</v>
+        <v>5.234491716717996e-153</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>4.917742923690829e-153</v>
+        <v>4.915707064748459e-153</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>4.621824553098948e-153</v>
+        <v>4.619756329475314e-153</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>4.347427382870463e-153</v>
+        <v>4.345536108611936e-153</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>4.093477456450844e-153</v>
+        <v>4.091942999870671e-153</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>3.85890081728631e-153</v>
+        <v>3.857873600964613e-153</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>3.642623508823015e-153</v>
+        <v>3.64222450960679e-153</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.443571574506529e-153</v>
+        <v>3.44389232350965e-153</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>3.260671057783024e-153</v>
+        <v>3.261773640386238e-153</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>3.092848002098603e-153</v>
+        <v>3.094765057949532e-153</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.93902845089893e-153</v>
+        <v>2.941763173912074e-153</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.798138447630127e-153</v>
+        <v>2.801664585986858e-153</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.669104035738269e-153</v>
+        <v>2.673365891886835e-153</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.550851258669086e-153</v>
+        <v>2.555763689324613e-153</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.442306159868758e-153</v>
+        <v>2.447754576013244e-153</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.342394782783054e-153</v>
+        <v>2.348235149665375e-153</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>2.250112546787467e-153</v>
+        <v>2.256178295385368e-153</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>2.164782676381861e-153</v>
+        <v>2.170917360444237e-153</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>2.085825121926593e-153</v>
+        <v>2.091892054127031e-153</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>2.012659847801473e-153</v>
+        <v>2.01854210113494e-153</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.944706818386584e-153</v>
+        <v>1.950307226169428e-153</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.881385998061757e-153</v>
+        <v>1.886627153931704e-153</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.822117351207007e-153</v>
+        <v>1.826941609123162e-153</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.766320842202333e-153</v>
+        <v>1.770690316445183e-153</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.713416435427588e-153</v>
+        <v>1.717313000598998e-153</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.662824095262775e-153</v>
+        <v>1.66624938628599e-153</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.613963786087889e-153</v>
+        <v>1.616939198207534e-153</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.566268060701035e-153</v>
+        <v>1.568834075589064e-153</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.519394331565662e-153</v>
+        <v>1.521598479940022e-153</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.473193909541153e-153</v>
+        <v>1.475080391229798e-153</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.427524459019598e-153</v>
+        <v>1.429133802837689e-153</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.38224364439325e-153</v>
+        <v>1.383612708143163e-153</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.337209130054201e-153</v>
+        <v>1.338371100525519e-153</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.292278580394663e-153</v>
+        <v>1.293262973364181e-153</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.247309659806848e-153</v>
+        <v>1.248142320038573e-153</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.202160032682848e-153</v>
+        <v>1.202863133927996e-153</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.156687363414875e-153</v>
+        <v>1.157279408411873e-153</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.110749316395143e-153</v>
+        <v>1.111245136869628e-153</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.06420355601574e-153</v>
+        <v>1.064614312680562e-153</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.01690774666888e-153</v>
+        <v>1.017240929224097e-153</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>9.687195527467792e-154</v>
+        <v>9.689789798796615e-154</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>9.194966386415216e-154</v>
+        <v>9.196824580265496e-154</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>8.692309312651087e-154</v>
+        <v>8.69340646663836e-154</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>8.185337948174178e-154</v>
+        <v>8.185670047349106e-154</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>7.681951145176618e-154</v>
+        <v>7.681548778771093e-154</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>7.190047922485587e-154</v>
+        <v>7.188976285187471e-154</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>6.717527298926931e-154</v>
+        <v>6.715886190880062e-154</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>6.272288293327842e-154</v>
+        <v>6.270212120132034e-154</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.862229924515413e-154</v>
+        <v>5.859887697226451e-154</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.495251211315641e-154</v>
+        <v>5.492846546445288e-154</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.179238528601038e-154</v>
+        <v>5.177009574600361e-154</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>4.918161471658173e-154</v>
+        <v>4.916358135299875e-154</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>4.706547580034874e-154</v>
+        <v>4.705376626778849e-154</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>4.537530211740288e-154</v>
+        <v>4.53714715944206e-154</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>4.404242724783408e-154</v>
+        <v>4.404751843694124e-154</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>4.299818477172889e-154</v>
+        <v>4.301272789939325e-154</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>4.217390826917756e-154</v>
+        <v>4.219792108582306e-154</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>4.150093132026955e-154</v>
+        <v>4.153391910027643e-154</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>4.091058750509257e-154</v>
+        <v>4.095154304679731e-154</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>4.033669177168558e-154</v>
+        <v>4.038412232012706e-154</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.974333805590289e-154</v>
+        <v>3.979559382866748e-154</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.911485786847582e-154</v>
+        <v>3.917035163260096e-154</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.843595303894779e-154</v>
+        <v>3.849316412886675e-154</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.769132539686033e-154</v>
+        <v>3.774879971440224e-154</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.686567677175681e-154</v>
+        <v>3.692202678614667e-154</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.59437089931809e-154</v>
+        <v>3.59976137410395e-154</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>3.491012389067369e-154</v>
+        <v>3.49603289760177e-154</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>3.374962329377876e-154</v>
+        <v>3.379494088802069e-154</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>3.244830196198633e-154</v>
+        <v>3.248763031319614e-154</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>3.101208467225208e-154</v>
+        <v>3.104468584274193e-154</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.946165964865314e-154</v>
+        <v>2.948736629059667e-154</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.781806699886027e-154</v>
+        <v>2.783728728274523e-154</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.610234683054839e-154</v>
+        <v>2.611606444517663e-154</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.433553925139267e-154</v>
+        <v>2.434531340388014e-154</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.253868501372509e-154</v>
+        <v>2.254665022103107e-154</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.073387083602626e-154</v>
+        <v>2.074239868028602e-154</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.894635641132651e-154</v>
+        <v>1.895702946292952e-154</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.720200083891473e-154</v>
+        <v>1.721541882042944e-154</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.5526663216506e-154</v>
+        <v>1.554244300275478e-154</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.394192079642506e-154</v>
+        <v>1.395889971474423e-154</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.245259053800065e-154</v>
+        <v>1.246962214006624e-154</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.105938914087887e-154</v>
+        <v>1.107553788135215e-154</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>9.763033304700594e-155</v>
+        <v>9.777574541228048e-155</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>8.564239729110515e-155</v>
+        <v>8.576659722323873e-155</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>7.463725113752038e-155</v>
+        <v>7.473721027268255e-155</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>6.462206158269409e-155</v>
+        <v>6.469686058690669e-155</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>5.560399562304225e-155</v>
+        <v>5.565482419217942e-155</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>4.759022025501507e-155</v>
+        <v>4.762037711480327e-155</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>4.057738120486798e-155</v>
+        <v>4.059194816620314e-155</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>3.450154160475468e-155</v>
+        <v>3.450550673950545e-155</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>2.927712481359722e-155</v>
+        <v>2.927471206320628e-155</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>2.481852718303037e-155</v>
+        <v>2.481319552184004e-155</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>2.104014506470335e-155</v>
+        <v>2.103458849995564e-155</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.785637481026293e-155</v>
+        <v>1.785252238209949e-155</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.518161277134757e-155</v>
+        <v>1.518062855280972e-155</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.293025529960452e-155</v>
+        <v>1.293253839663324e-155</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.101690670620867e-155</v>
+        <v>1.102209429656851e-155</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>9.376334850172124e-156</v>
+        <v>9.383596834474035e-156</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>7.980031550468728e-156</v>
+        <v>7.988607201396915e-156</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>6.803386690966923e-156</v>
+        <v>6.81264161591357e-156</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>5.821790155539013e-156</v>
+        <v>5.831216296604269e-156</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>5.010631828056592e-156</v>
+        <v>5.019847462048576e-156</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>4.345301592389161e-156</v>
+        <v>4.354051330823959e-156</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.801189332408458e-156</v>
+        <v>3.809344121510125e-156</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.35368493198579e-156</v>
+        <v>3.36124205268635e-156</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>2.978520826158213e-156</v>
+        <v>2.985599997066089e-156</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.659551563806805e-156</v>
+        <v>2.66630254002098e-156</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.388891397568284e-156</v>
+        <v>2.395400004201523e-156</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.159024651662404e-156</v>
+        <v>2.165308573723809e-156</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.96243565030983e-156</v>
+        <v>1.968444432704843e-156</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.79160871773045e-156</v>
+        <v>1.797223765260849e-156</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.639028178144693e-156</v>
+        <v>1.644062755508595e-156</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.497178355772919e-156</v>
+        <v>1.501377587564779e-156</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.358543574835116e-156</v>
+        <v>1.361584445545726e-156</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.218372040820252e-156</v>
+        <v>1.219953133839578e-156</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.08384974341071e-156</v>
+        <v>1.084078842645139e-156</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>9.653850046907601e-157</v>
+        <v>9.648837187739387e-157</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>8.732059627264677e-157</v>
+        <v>8.730968296559563e-157</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>8.059071679803296e-157</v>
+        <v>8.069811917584461e-157</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>7.459831795747152e-157</v>
+        <v>7.475926062658331e-157</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>6.897597184506201e-157</v>
+        <v>6.910946614741859e-157</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>6.396623622426107e-157</v>
+        <v>6.403003260538835e-157</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>5.981314380697869e-157</v>
+        <v>5.980386469108838e-157</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>5.674645771346758e-157</v>
+        <v>5.669843276671565e-157</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>5.466626059888315e-157</v>
+        <v>5.462461699291842e-157</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>5.314213040861466e-157</v>
+        <v>5.313581580623557e-157</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>5.172921064715178e-157</v>
+        <v>5.176981500996033e-157</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>4.998264481897831e-157</v>
+        <v>5.006440040738015e-157</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>4.745780631587103e-157</v>
+        <v>4.755759506061957e-157</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>4.394899774737089e-157</v>
+        <v>4.403401273142371e-157</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.99412784266442e-157</v>
+        <v>3.99911736247454e-157</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.604380792009878e-157</v>
+        <v>3.605467758584351e-157</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.284017859949651e-157</v>
+        <v>3.282396346261688e-157</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.043429037446238e-157</v>
+        <v>3.040763669674133e-157</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.850378938260012e-157</v>
+        <v>2.847814913701634e-157</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.671148906460738e-157</v>
+        <v>2.669277544327027e-157</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.478514870788352e-157</v>
+        <v>2.477457300803136e-157</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.272745525692739e-157</v>
+        <v>2.272506957254509e-157</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.061383176971676e-157</v>
+        <v>2.061946626217016e-157</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.851970176723489e-157</v>
+        <v>1.853296467123696e-157</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.652048877046496e-157</v>
+        <v>1.654076639407578e-157</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.469161061740462e-157</v>
+        <v>1.471806733059977e-157</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.308810858559946e-157</v>
+        <v>1.311964583172166e-157</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.169886388738945e-157</v>
+        <v>1.173398709861572e-157</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.049935354018981e-157</v>
+        <v>1.053614517427174e-157</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>9.46505456141958e-158</v>
+        <v>9.501174101683354e-158</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>8.571443968497224e-158</v>
+        <v>8.604127923843609e-158</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.793998778838851e-158</v>
+        <v>7.820060683743189e-158</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>7.10819614028101e-158</v>
+        <v>7.124026604940958e-158</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>6.495603388002857e-158</v>
+        <v>6.499507271231168e-158</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>5.955381282709246e-158</v>
+        <v>5.952583237223905e-158</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>5.4797742161438e-158</v>
+        <v>5.47535408326508e-158</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>5.059169901005537e-158</v>
+        <v>5.056670534507588e-158</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>4.683956049992365e-158</v>
+        <v>4.685383316103229e-158</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>4.344520375803641e-158</v>
+        <v>4.350343153205244e-158</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>4.03237480928686e-158</v>
+        <v>4.041756356021091e-158</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.74436143047864e-158</v>
+        <v>3.756256341977428e-158</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.478900390191005e-158</v>
+        <v>3.492379370187626e-158</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.234412081484526e-158</v>
+        <v>3.248661991869104e-158</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.009316897420502e-158</v>
+        <v>3.023640758240006e-158</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.802035231060162e-158</v>
+        <v>2.815852220518409e-158</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.610987475464183e-158</v>
+        <v>2.623832929921836e-158</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.434594023693808e-158</v>
+        <v>2.446119437668378e-158</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.271275268810231e-158</v>
+        <v>2.281248294976075e-158</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.119451603874206e-158</v>
+        <v>2.127756053062528e-158</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.977543421947059e-158</v>
+        <v>1.984179263145913e-158</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.843973178470936e-158</v>
+        <v>1.84905634579467e-158</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.717559639218892e-158</v>
+        <v>1.721284938865252e-158</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.597986495663204e-158</v>
+        <v>1.60054665236859e-158</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.485051536256386e-158</v>
+        <v>1.486626514280267e-158</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.378552549451281e-158</v>
+        <v>1.379309552576199e-158</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.278287323700709e-158</v>
+        <v>1.278380795232279e-158</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.184053647457221e-158</v>
+        <v>1.183625270224126e-158</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.095649309173643e-158</v>
+        <v>1.094828005527637e-158</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.012872097302777e-158</v>
+        <v>1.011774029118688e-158</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>9.355198002972073e-159</v>
+        <v>9.342483689729329e-159</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>8.633902066098049e-159</v>
+        <v>8.620360530663142e-159</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>7.962811046931723e-159</v>
+        <v>7.949221093745051e-159</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>7.33990283000108e-159</v>
+        <v>7.326915658733761e-159</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>6.763155299833943e-159</v>
+        <v>6.751294505387801e-159</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>6.230546340956589e-159</v>
+        <v>6.220207913464162e-159</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>5.740053837896877e-159</v>
+        <v>5.731506162721419e-159</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>5.289655675182513e-159</v>
+        <v>5.283039532917982e-159</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>4.877329737340009e-159</v>
+        <v>4.872658303811084e-159</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>4.501053908897103e-159</v>
+        <v>4.498212755159169e-159</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>4.158759590724484e-159</v>
+        <v>4.157525856862334e-159</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.848163781597781e-159</v>
+        <v>3.848294614315613e-159</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.566921705907123e-159</v>
+        <v>3.568179739519771e-159</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.31268858230563e-159</v>
+        <v>3.314841941104557e-159</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.083119629447195e-159</v>
+        <v>3.085941927700487e-159</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.875870065985444e-159</v>
+        <v>2.879140407937813e-159</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.68859511057416e-159</v>
+        <v>2.692098090446946e-159</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.518949981866637e-159</v>
+        <v>2.522475683857803e-159</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.364589898516808e-159</v>
+        <v>2.367933896800945e-159</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.223170079178024e-159</v>
+        <v>2.226133437906347e-159</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.092345742504058e-159</v>
+        <v>2.094735015804406e-159</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.96977210714864e-159</v>
+        <v>1.971399339125482e-159</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.853104391765178e-159</v>
+        <v>1.853787116499605e-159</v>
       </c>
     </row>
   </sheetData>
